--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_17_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_17_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>797599.2469645881</v>
+        <v>795163.6100408813</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>24.6214982250919</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>76.69098752400144</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>63.13625055643821</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -880,7 +880,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>120.6353666620237</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>407.8895948559971</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>71.05418784568865</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247811</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>32.85881373760815</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>35.29706439293702</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1190,13 +1190,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>270.513949077849</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>208.3347909564269</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>128.5190461533426</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>222.1526784153806</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>276.0830593329711</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4296912136494</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806772</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238021</v>
+        <v>22.60777203238047</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114098</v>
+        <v>97.97552699114112</v>
       </c>
       <c r="T11" t="n">
-        <v>168.5448883815432</v>
+        <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
         <v>250.9558092037176</v>
@@ -1433,10 +1433,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458124</v>
+        <v>87.05432226458127</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035195</v>
+        <v>9.753166794035309</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>168.1798454756778</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>124.1004521009499</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.00824149146349</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076761</v>
+        <v>185.9226570076762</v>
       </c>
       <c r="T13" t="n">
         <v>218.6059168754546</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1607,13 +1607,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>314.981365633718</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>331.6388439349721</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>132.2747312650278</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,10 +1780,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>7.018581172449848</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881301</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2008,13 +2008,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>20.92847288552966</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>108.5813113004296</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560524</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182082</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922729</v>
+        <v>120.7871326504005</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>1.839588425935734</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2318,13 +2318,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710081</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722631</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2476,19 +2476,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986259</v>
+        <v>167.2468210986234</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>19.91555826189333</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>74.99129529219337</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710085</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740385</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>26.13627195705882</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272853</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206837</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613192</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>26.13627195706076</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856307</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187871</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,13 +3193,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833875</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>107.4021082756242</v>
+        <v>181.026286001643</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3275,13 +3275,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417125</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144414</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3430,13 +3430,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833916</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>107.4021082756279</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>286.52299833659</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3667,10 +3667,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>0.8253826161915776</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3718,7 +3718,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>142.1343012721642</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3904,16 +3904,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833875</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,19 +3943,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>219.2450387532278</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,19 +4132,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>69.82863813027285</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>83.06560892428202</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1513.341883274785</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C2" t="n">
-        <v>1144.379366334374</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D2" t="n">
-        <v>786.1136677276232</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E2" t="n">
-        <v>786.1136677276232</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H2" t="n">
         <v>66.51211643218342</v>
@@ -4328,7 +4328,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4337,10 +4337,10 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4358,22 +4358,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883007</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V2" t="n">
-        <v>2741.012457539437</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="W2" t="n">
-        <v>2663.546813575799</v>
+        <v>2435.796531379708</v>
       </c>
       <c r="X2" t="n">
-        <v>2290.081055314719</v>
+        <v>2062.330773118628</v>
       </c>
       <c r="Y2" t="n">
-        <v>1899.941723338907</v>
+        <v>1672.191441142816</v>
       </c>
     </row>
     <row r="3">
@@ -4401,7 +4401,7 @@
         <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
@@ -4410,10 +4410,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1773.690100384972</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1773.690100384972</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1484.587233510615</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1229.902745304728</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>940.4855752677674</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X4" t="n">
-        <v>712.4960243697501</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y4" t="n">
-        <v>491.70344522622</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1941.127034633561</v>
+        <v>1569.10175931188</v>
       </c>
       <c r="C5" t="n">
-        <v>1572.164517693149</v>
+        <v>1569.10175931188</v>
       </c>
       <c r="D5" t="n">
-        <v>1213.898819086399</v>
+        <v>1210.83606070513</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881545</v>
+        <v>825.0478081068854</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>818.102307357682</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4562,55 +4562,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.03827352421</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X5" t="n">
-        <v>2331.266366609373</v>
+        <v>2345.840931351814</v>
       </c>
       <c r="Y5" t="n">
-        <v>1941.127034633561</v>
+        <v>1955.701599376002</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064616</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1837.464090846021</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1582.779602640134</v>
+        <v>1101.718003420938</v>
       </c>
       <c r="W7" t="n">
-        <v>1293.362432603174</v>
+        <v>812.300833383977</v>
       </c>
       <c r="X7" t="n">
-        <v>1065.372881705156</v>
+        <v>584.3112824859596</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.71928130825</v>
+        <v>363.5187033424295</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1643.543434242328</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="C8" t="n">
-        <v>1274.580917301916</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4823,31 +4823,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>2961.784676410104</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066531</v>
+        <v>2688.538263200155</v>
       </c>
       <c r="W8" t="n">
-        <v>2630.721789066531</v>
+        <v>2335.769607930041</v>
       </c>
       <c r="X8" t="n">
-        <v>2420.282606282261</v>
+        <v>1962.303849668961</v>
       </c>
       <c r="Y8" t="n">
-        <v>2030.14327430645</v>
+        <v>1572.164517693149</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>662.2721046070461</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C10" t="n">
-        <v>493.3359216791392</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="D10" t="n">
-        <v>343.2192822668035</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="E10" t="n">
-        <v>343.2192822668035</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F10" t="n">
-        <v>196.3293347688931</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.59460854119</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>1071.910120335303</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W10" t="n">
-        <v>1071.910120335303</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X10" t="n">
-        <v>843.9205694372858</v>
+        <v>456.2408785036205</v>
       </c>
       <c r="Y10" t="n">
-        <v>843.9205694372858</v>
+        <v>235.4482993600903</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2332.418671408906</v>
+        <v>1535.258832689346</v>
       </c>
       <c r="C11" t="n">
-        <v>1963.456154468494</v>
+        <v>1256.387055585335</v>
       </c>
       <c r="D11" t="n">
-        <v>1605.190455861744</v>
+        <v>898.1213569785843</v>
       </c>
       <c r="E11" t="n">
-        <v>1219.402203263499</v>
+        <v>512.3331043803402</v>
       </c>
       <c r="F11" t="n">
-        <v>808.4162984738919</v>
+        <v>101.3471995907326</v>
       </c>
       <c r="G11" t="n">
-        <v>393.8408528035378</v>
+        <v>101.3471995907326</v>
       </c>
       <c r="H11" t="n">
-        <v>101.3471995907325</v>
+        <v>101.3471995907326</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469187</v>
+        <v>78.51106622469173</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386834</v>
+        <v>308.7333971386829</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420323</v>
+        <v>704.515510442031</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301225</v>
+        <v>1232.419981301223</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878111</v>
+        <v>1851.484858878107</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765426</v>
+        <v>2485.180661765422</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687103</v>
+        <v>3070.226377687098</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856285</v>
+        <v>3535.048359856279</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882243</v>
+        <v>3835.937563882237</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234593</v>
+        <v>3925.553311234587</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.588132455663</v>
+        <v>3826.588132455656</v>
       </c>
       <c r="T11" t="n">
-        <v>3656.340770454104</v>
+        <v>3622.786021971436</v>
       </c>
       <c r="U11" t="n">
-        <v>3402.850054086713</v>
+        <v>3369.295305604044</v>
       </c>
       <c r="V11" t="n">
-        <v>3071.787166743142</v>
+        <v>3038.232418260473</v>
       </c>
       <c r="W11" t="n">
-        <v>2719.018511473028</v>
+        <v>2685.463762990359</v>
       </c>
       <c r="X11" t="n">
-        <v>2719.018511473028</v>
+        <v>2311.998004729279</v>
       </c>
       <c r="Y11" t="n">
-        <v>2719.018511473028</v>
+        <v>1921.858672753468</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503046</v>
+        <v>88.36274985503043</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469187</v>
+        <v>78.51106622469173</v>
       </c>
       <c r="J12" t="n">
-        <v>196.812062379213</v>
+        <v>196.8120623792125</v>
       </c>
       <c r="K12" t="n">
-        <v>477.1621322376506</v>
+        <v>477.1621322376495</v>
       </c>
       <c r="L12" t="n">
-        <v>900.4499396649603</v>
+        <v>900.4499396649587</v>
       </c>
       <c r="M12" t="n">
-        <v>1413.76371390885</v>
+        <v>1413.763713908847</v>
       </c>
       <c r="N12" t="n">
-        <v>1955.072021259917</v>
+        <v>1955.072021259914</v>
       </c>
       <c r="O12" t="n">
-        <v>2367.979045985249</v>
+        <v>1991.670362601624</v>
       </c>
       <c r="P12" t="n">
-        <v>2367.979045985249</v>
+        <v>2351.938665441778</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>523.4307467173311</v>
+        <v>203.8650582458534</v>
       </c>
       <c r="C13" t="n">
-        <v>523.4307467173311</v>
+        <v>203.8650582458533</v>
       </c>
       <c r="D13" t="n">
-        <v>373.3141073049954</v>
+        <v>78.51106622469173</v>
       </c>
       <c r="E13" t="n">
-        <v>225.4010137226022</v>
+        <v>78.51106622469173</v>
       </c>
       <c r="F13" t="n">
-        <v>78.51106622469187</v>
+        <v>78.51106622469173</v>
       </c>
       <c r="G13" t="n">
-        <v>78.51106622469187</v>
+        <v>78.51106622469173</v>
       </c>
       <c r="H13" t="n">
-        <v>78.51106622469187</v>
+        <v>78.51106622469173</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469187</v>
+        <v>78.51106622469173</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600401</v>
+        <v>139.0818334600398</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457705</v>
+        <v>368.4550473457699</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888919</v>
+        <v>717.5002252888909</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779221</v>
+        <v>1095.90854877922</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542994</v>
+        <v>1470.753784542992</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715849</v>
+        <v>1800.967734715847</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082522</v>
+        <v>2060.002133082519</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551105</v>
+        <v>2155.909043551103</v>
       </c>
       <c r="R13" t="n">
-        <v>2155.909043551105</v>
+        <v>2076.102739014271</v>
       </c>
       <c r="S13" t="n">
-        <v>1968.108379906988</v>
+        <v>1888.302075370154</v>
       </c>
       <c r="T13" t="n">
-        <v>1747.294322457034</v>
+        <v>1667.4880179202</v>
       </c>
       <c r="U13" t="n">
-        <v>1458.203615897322</v>
+        <v>1378.397311360488</v>
       </c>
       <c r="V13" t="n">
-        <v>1203.519127691435</v>
+        <v>1123.712823154601</v>
       </c>
       <c r="W13" t="n">
-        <v>914.1019576544747</v>
+        <v>834.2956531176405</v>
       </c>
       <c r="X13" t="n">
-        <v>914.1019576544747</v>
+        <v>606.3061022196232</v>
       </c>
       <c r="Y13" t="n">
-        <v>693.3093785109446</v>
+        <v>385.5135230760931</v>
       </c>
     </row>
     <row r="14">
@@ -5255,10 +5255,10 @@
         <v>2266.424947555046</v>
       </c>
       <c r="C14" t="n">
-        <v>1897.462430614635</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D14" t="n">
-        <v>1539.196732007884</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E14" t="n">
         <v>1204.208000760437</v>
@@ -5276,28 +5276,28 @@
         <v>92.81162322608057</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251935</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128756</v>
+        <v>841.9378825128761</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874794</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O14" t="n">
         <v>3602.609239333933</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021282</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R14" t="n">
         <v>4640.581161304028</v>
@@ -5355,28 +5355,28 @@
         <v>92.81162322608056</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608056</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K15" t="n">
-        <v>423.3203657894393</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L15" t="n">
-        <v>914.0526986331906</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M15" t="n">
-        <v>1506.071052885318</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="N15" t="n">
-        <v>1550.98943211006</v>
+        <v>1355.754362358723</v>
       </c>
       <c r="O15" t="n">
-        <v>2097.865907110254</v>
+        <v>1902.630837358917</v>
       </c>
       <c r="P15" t="n">
-        <v>2517.44942553633</v>
+        <v>2322.214355784993</v>
       </c>
       <c r="Q15" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>851.3355051005328</v>
+        <v>561.9183350635726</v>
       </c>
       <c r="C16" t="n">
-        <v>682.3993221726259</v>
+        <v>561.9183350635726</v>
       </c>
       <c r="D16" t="n">
-        <v>548.7884825109817</v>
+        <v>561.9183350635726</v>
       </c>
       <c r="E16" t="n">
-        <v>548.7884825109817</v>
+        <v>414.0052414811796</v>
       </c>
       <c r="F16" t="n">
-        <v>401.8985350130713</v>
+        <v>267.1152939832692</v>
       </c>
       <c r="G16" t="n">
-        <v>234.6843401876502</v>
+        <v>99.90109915784808</v>
       </c>
       <c r="H16" t="n">
-        <v>92.81162322608056</v>
+        <v>99.90109915784808</v>
       </c>
       <c r="I16" t="n">
         <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156346</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861984</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693326</v>
+        <v>819.1842911693321</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213792</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N16" t="n">
         <v>1653.109749005498</v>
@@ -5473,13 +5473,13 @@
         <v>1481.76609997232</v>
       </c>
       <c r="W16" t="n">
-        <v>1481.76609997232</v>
+        <v>1192.34892993536</v>
       </c>
       <c r="X16" t="n">
-        <v>1253.776549074303</v>
+        <v>964.3593790373425</v>
       </c>
       <c r="Y16" t="n">
-        <v>1032.983969930772</v>
+        <v>743.5667998938123</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5489,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5528,37 +5528,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>580.8993044876695</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>411.9631215597626</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>261.8464821474267</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>261.8464821474267</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>114.9565346495165</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704552</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614394</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>762.5477693179092</v>
       </c>
     </row>
     <row r="20">
@@ -5729,70 +5729,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616861</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1671.859558793925</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2223.769289033212</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.580456911444</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835368</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345712011</v>
+        <v>363.7369613277393</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888082</v>
+        <v>215.8238677453461</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908979</v>
+        <v>215.8238677453461</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K22" t="n">
         <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5929,31 +5929,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1936.428221820192</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1647.011051783231</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1419.021500885214</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.228921741683</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5981,58 +5981,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,25 +6060,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N24" t="n">
-        <v>1671.859558793925</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O24" t="n">
         <v>2092.798483612593</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>724.7519863413006</v>
+        <v>580.899304487667</v>
       </c>
       <c r="C25" t="n">
-        <v>555.8158034133955</v>
+        <v>411.9631215597647</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133955</v>
+        <v>261.846482147429</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310024</v>
+        <v>113.9333885650359</v>
       </c>
       <c r="F25" t="n">
-        <v>261.012762333092</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782954</v>
@@ -6166,31 +6166,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2188.359466111738</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1899.284239455935</v>
+        <v>1755.431557602302</v>
       </c>
       <c r="V25" t="n">
-        <v>1644.599751250048</v>
+        <v>1500.747069396415</v>
       </c>
       <c r="W25" t="n">
-        <v>1355.182581213088</v>
+        <v>1211.329899359454</v>
       </c>
       <c r="X25" t="n">
-        <v>1127.19303031507</v>
+        <v>983.3403484614369</v>
       </c>
       <c r="Y25" t="n">
-        <v>906.4004511715403</v>
+        <v>762.5477693179067</v>
       </c>
     </row>
     <row r="26">
@@ -6215,58 +6215,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961526</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M27" t="n">
-        <v>1337.934786622704</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N27" t="n">
-        <v>1337.934786622704</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>1889.844516861991</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2313.46766635706</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>956.9553291057243</v>
+        <v>513.8536007400751</v>
       </c>
       <c r="C28" t="n">
-        <v>788.0191461778174</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654816</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830886</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6388,7 +6388,7 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2420.562808876161</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2420.562808876161</v>
+        <v>1977.461080510512</v>
       </c>
       <c r="U28" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.38585385471</v>
       </c>
       <c r="V28" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648823</v>
       </c>
       <c r="W28" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611862</v>
       </c>
       <c r="X28" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138449</v>
       </c>
       <c r="Y28" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703148</v>
       </c>
     </row>
     <row r="29">
@@ -6437,46 +6437,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M30" t="n">
-        <v>1074.481071167373</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>983.3556038098234</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>814.4194208819165</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D31" t="n">
-        <v>664.3027814695806</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E31" t="n">
-        <v>516.3896878871876</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>369.4997403892774</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>202.3036411041574</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000558</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L31" t="n">
         <v>826.1405381797745</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6698,25 +6698,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852255</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.913939313768</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>1964.511902868375</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>344.917417812165</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133953</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6871,37 +6871,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2338.476105524075</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T34" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U34" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
     <row r="35">
@@ -6923,16 +6923,16 @@
         <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111708</v>
@@ -6947,13 +6947,13 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852256</v>
@@ -7023,16 +7023,16 @@
         <v>924.8344286397185</v>
       </c>
       <c r="M36" t="n">
-        <v>1522.21291626627</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373306</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612593</v>
+        <v>2104.342122433613</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536376</v>
+        <v>513.8536007400724</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257307</v>
+        <v>344.9174178121655</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133949</v>
+        <v>194.8007783998296</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310019</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330918</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G37" t="n">
         <v>93.81666304797189</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782992</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038379</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797781</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910813</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570821</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580265</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580265</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>2049.400878868272</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1794.716390662385</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X37" t="n">
-        <v>1277.309669727407</v>
+        <v>916.2946447138422</v>
       </c>
       <c r="Y37" t="n">
-        <v>1056.517090583877</v>
+        <v>695.5020655703121</v>
       </c>
     </row>
     <row r="38">
@@ -7160,40 +7160,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245705</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>580.8993044876695</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>411.9631215597626</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133953</v>
+        <v>261.846482147427</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>261.846482147427</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>261.846482147427</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>94.65038286230674</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>94.65038286230674</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7357,25 +7357,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.2863919474</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1794.716390662386</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1505.299220625425</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.309669727408</v>
+        <v>983.3403484614394</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583878</v>
+        <v>762.5477693179092</v>
       </c>
     </row>
     <row r="41">
@@ -7397,61 +7397,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245706</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2529.355041543136</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835331</v>
+        <v>344.917417812165</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711973</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7582,37 +7582,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y43" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
     <row r="44">
@@ -7646,10 +7646,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>590.9096564684977</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M45" t="n">
-        <v>1188.28814409505</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N45" t="n">
-        <v>1815.886107649656</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2367.795837888943</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2367.795837888943</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400716</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121647</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121647</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
         <v>261.0127623330919</v>
@@ -7819,7 +7819,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.4026036630042</v>
+        <v>695.5020655703113</v>
       </c>
     </row>
   </sheetData>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>89.18983243803643</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,10 +23270,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.5687166806773</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>33.2192009978347</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11.65213470625946</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>24.51502091726248</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.8050985482227</v>
@@ -23434,7 +23434,7 @@
         <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034036</v>
+        <v>89.71507747034045</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146337</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,13 +23495,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>50.29152613728951</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>50.29152613728968</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>16.34074175318455</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>74.78599557195918</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>144.5956654067392</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856046</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>110.0033420516652</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>44.73700564186837</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>250.2980548978923</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,16 +24367,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>125.5054897610379</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>142.4141550350949</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>45.44677382458929</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>154.8900140445858</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>146.8157004124959</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>114.1584408891631</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>45.4467738245925</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>73.62417772602038</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25318,13 +25318,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>46.45968844823001</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>110.0033420516604</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25555,10 +25555,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>80.44045370237382</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>45.4467738245925</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,19 +25831,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>32.89260457060018</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26020,19 +26020,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>63.36835372228715</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>913262.7360050146</v>
+        <v>913262.736005014</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>999123.6320254672</v>
+        <v>999123.6320254675</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>999123.6320254671</v>
+        <v>999123.6320254672</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>999123.6320254675</v>
+        <v>999123.6320254672</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>999123.6320254672</v>
+        <v>999123.6320254671</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>999123.6320254673</v>
+        <v>999123.6320254671</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>999123.6320254673</v>
+        <v>999123.6320254671</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>999123.6320254672</v>
+        <v>999123.6320254671</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>431046.9291787486</v>
+      </c>
+      <c r="C2" t="n">
         <v>431046.9291787487</v>
-      </c>
-      <c r="C2" t="n">
-        <v>431046.9291787488</v>
       </c>
       <c r="D2" t="n">
         <v>431046.9291787487</v>
       </c>
       <c r="E2" t="n">
-        <v>386954.437971345</v>
+        <v>386954.4379713447</v>
       </c>
       <c r="F2" t="n">
-        <v>421406.8801099662</v>
+        <v>421406.880109966</v>
       </c>
       <c r="G2" t="n">
+        <v>423751.9648372532</v>
+      </c>
+      <c r="H2" t="n">
         <v>423751.9648372533</v>
-      </c>
-      <c r="H2" t="n">
-        <v>423751.9648372532</v>
       </c>
       <c r="I2" t="n">
         <v>423751.9648372533</v>
@@ -26338,19 +26338,19 @@
         <v>423751.9648372533</v>
       </c>
       <c r="K2" t="n">
+        <v>423751.9648372533</v>
+      </c>
+      <c r="L2" t="n">
         <v>423751.9648372532</v>
-      </c>
-      <c r="L2" t="n">
-        <v>423751.9648372531</v>
       </c>
       <c r="M2" t="n">
         <v>423751.9648372533</v>
       </c>
       <c r="N2" t="n">
+        <v>423751.9648372531</v>
+      </c>
+      <c r="O2" t="n">
         <v>423751.9648372533</v>
-      </c>
-      <c r="O2" t="n">
-        <v>423751.9648372532</v>
       </c>
       <c r="P2" t="n">
         <v>423751.9648372532</v>
@@ -26363,28 +26363,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>4.14093847211916e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>143114.1392185163</v>
+        <v>143114.1392185144</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051377</v>
+        <v>166521.3471051394</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557874</v>
+        <v>11167.23623557916</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>217531.2023972775</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>37377.32855115368</v>
+        <v>37377.32855115298</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848903</v>
+        <v>43782.40655848945</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224374</v>
+        <v>3023.297977224638</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.0670231448</v>
+        <v>90354.06702314482</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.0670231448</v>
+        <v>90354.06702314477</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314482</v>
+        <v>90354.06702314474</v>
       </c>
       <c r="E4" t="n">
         <v>11067.91129448747</v>
@@ -26430,22 +26430,22 @@
         <v>11160.49963056816</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="I4" t="n">
         <v>11167.03225179352</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="M4" t="n">
         <v>11167.03225179351</v>
@@ -26454,7 +26454,7 @@
         <v>11167.03225179352</v>
       </c>
       <c r="O4" t="n">
-        <v>11167.03225179357</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="P4" t="n">
         <v>11167.03225179351</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214714</v>
+        <v>86093.72216214701</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26522,46 +26522,46 @@
         <v>-1095985.824133382</v>
       </c>
       <c r="C6" t="n">
-        <v>232758.9215942103</v>
+        <v>232758.9215942106</v>
       </c>
       <c r="D6" t="n">
-        <v>232758.9215942108</v>
+        <v>232758.9215942107</v>
       </c>
       <c r="E6" t="n">
-        <v>146678.6652961941</v>
+        <v>146468.7010523511</v>
       </c>
       <c r="F6" t="n">
-        <v>143582.9048604219</v>
+        <v>143536.9998648544</v>
       </c>
       <c r="G6" t="n">
-        <v>300295.1665259739</v>
+        <v>300260.4286005377</v>
       </c>
       <c r="H6" t="n">
-        <v>311462.4027615525</v>
+        <v>311427.6648361171</v>
       </c>
       <c r="I6" t="n">
-        <v>311462.4027615524</v>
+        <v>311427.6648361169</v>
       </c>
       <c r="J6" t="n">
-        <v>93931.20036427515</v>
+        <v>93896.46243883953</v>
       </c>
       <c r="K6" t="n">
-        <v>311462.4027615527</v>
+        <v>311427.6648361169</v>
       </c>
       <c r="L6" t="n">
-        <v>311462.4027615524</v>
+        <v>311427.6648361168</v>
       </c>
       <c r="M6" t="n">
-        <v>274085.0742103989</v>
+        <v>274050.336284964</v>
       </c>
       <c r="N6" t="n">
-        <v>267679.9962030636</v>
+        <v>267645.2582776273</v>
       </c>
       <c r="O6" t="n">
-        <v>308439.1047843281</v>
+        <v>308404.3668588923</v>
       </c>
       <c r="P6" t="n">
-        <v>311462.4027615525</v>
+        <v>311427.6648361168</v>
       </c>
     </row>
   </sheetData>
@@ -26738,13 +26738,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494556</v>
+        <v>1212.170267494555</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26787,31 +26787,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086483</v>
+        <v>981.3883278086466</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326007</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26960,25 +26960,25 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>122.3935669012581</v>
+        <v>122.3935669012565</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218295</v>
+        <v>145.8707812218311</v>
       </c>
       <c r="G3" t="n">
-        <v>9.93445162528792</v>
+        <v>9.934451625288375</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26990,7 +26990,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>149.9868724063557</v>
+        <v>149.9868724063535</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173586</v>
+        <v>178.7569625173603</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063559</v>
+        <v>149.9868724063538</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173584</v>
+        <v>178.7569625173601</v>
       </c>
       <c r="O4" t="n">
-        <v>12.5629977736412</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063557</v>
+        <v>149.9868724063535</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173586</v>
+        <v>178.7569625173603</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>358.1123434383887</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,16 +27430,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>272.5499811934116</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,10 +27585,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>126.6327747750037</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>105.0742887270135</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,10 +27625,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>3.032130797456318</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>298.6769128327804</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27822,16 +27822,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>219.2788295862198</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>183.2875889591578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27910,13 +27910,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>57.23830939228588</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>161.3963097220421</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>37.50676210568565</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>3.556976973656589</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-1.519424586149398e-12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28740,7 +28740,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>5.039424877395504e-12</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-6.979185022862088e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.204932301338909e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -28962,7 +28962,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -28971,7 +28971,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>-3.996358799440713e-12</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -29044,7 +29044,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>-7.927527488278583e-13</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -29196,7 +29196,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1.932676241267473e-12</v>
+        <v>4.462208380573429e-12</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>-2.120263810372943e-13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29484,7 +29484,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>2.98632585327141e-12</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -29515,7 +29515,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.412496077577728e-13</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29688,7 +29688,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>2.458477865729947e-12</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -29955,7 +29955,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>1.591615728102625e-12</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.036892514898156e-12</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30165,7 +30165,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>3.439026841078885e-12</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30204,7 +30204,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>9.426533627750662e-13</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.87304630148565</v>
+        <v>4.873046301485644</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508993</v>
+        <v>49.90608543508986</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380257</v>
+        <v>187.8681175380254</v>
       </c>
       <c r="J11" t="n">
-        <v>413.593713530718</v>
+        <v>413.5937135307175</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726058</v>
+        <v>619.869763472605</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216974</v>
+        <v>769.0032542216964</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857428</v>
+        <v>855.6642913857416</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898389</v>
+        <v>869.5098341898378</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294409</v>
+        <v>821.0534800294399</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615138</v>
+        <v>700.7501494615129</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895589</v>
+        <v>526.2341787895582</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356982</v>
+        <v>306.1064947356978</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951044</v>
+        <v>111.0445425951042</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475345</v>
+        <v>21.33176018475342</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188519</v>
+        <v>0.3898437041188514</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969423</v>
+        <v>2.60730963196942</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191522</v>
+        <v>25.18112197191519</v>
       </c>
       <c r="I12" t="n">
-        <v>89.7692132059648</v>
+        <v>89.76921320596469</v>
       </c>
       <c r="J12" t="n">
-        <v>246.3335823783042</v>
+        <v>246.3335823783038</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202555</v>
+        <v>421.0233277202549</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256417</v>
+        <v>566.117821625641</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845331</v>
+        <v>660.6327957845323</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147142</v>
+        <v>678.1177801147132</v>
       </c>
       <c r="O12" t="n">
-        <v>559.6740471973054</v>
+        <v>179.5642660017277</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>497.8817840205465</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.8207874071846</v>
+        <v>332.8207874071842</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533295</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697588</v>
+        <v>48.42963285697581</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780657</v>
+        <v>10.50928750780656</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190411</v>
+        <v>0.1715335284190408</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236085</v>
+        <v>2.185880810236082</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737175</v>
+        <v>19.43446756737173</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691792</v>
+        <v>65.73539745691784</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836912</v>
+        <v>154.541773283691</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619742</v>
+        <v>253.9596068619738</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509176</v>
+        <v>324.9808615509172</v>
       </c>
       <c r="M13" t="n">
-        <v>342.646752826371</v>
+        <v>342.6467528263705</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973095</v>
+        <v>334.499378897309</v>
       </c>
       <c r="O13" t="n">
-        <v>308.964316705006</v>
+        <v>308.9643167050056</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761897</v>
+        <v>264.3723481761893</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.037710391678</v>
+        <v>183.0377103916778</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570612</v>
+        <v>98.28514988570599</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929613</v>
+        <v>38.09394102929608</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826906</v>
+        <v>9.339672552826894</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765139</v>
+        <v>0.1192298623765137</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,7 +32075,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
         <v>471.6886536848224</v>
@@ -32084,10 +32084,10 @@
         <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504302</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>176.7138123103447</v>
+        <v>428.3656332688745</v>
       </c>
       <c r="O15" t="n">
         <v>694.9967242426205</v>
@@ -32096,10 +32096,10 @@
         <v>557.7961431982454</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R15" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.25758340862161</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391487</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32552,37 +32552,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>708.9385480032147</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>193.964997009853</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32789,19 +32789,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>209.9499448422518</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>567.7870775946146</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214699</v>
@@ -33020,31 +33020,31 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>196.3041720118997</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>344.9857809048113</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>258.3858318060501</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>602.4605829984181</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>744.5154887882966</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>303.4297552732306</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33743,19 +33743,19 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>150.2061940096322</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>314.5984986256099</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33898,7 +33898,7 @@
         <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175677</v>
@@ -33968,13 +33968,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>324.9782573297443</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473073</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>465.217062384076</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>173.8200325543357</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>169.6252075171348</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>519.7862086120936</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>290.1088399635148</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040318</v>
+        <v>232.5478090040313</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276252</v>
+        <v>399.7799124276244</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517101</v>
+        <v>533.2368392517092</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584701</v>
+        <v>625.3180581584689</v>
       </c>
       <c r="N11" t="n">
-        <v>640.096770593248</v>
+        <v>640.0967705932469</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077542</v>
+        <v>590.9552686077532</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062443</v>
+        <v>469.5171537062434</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151094</v>
+        <v>303.9284889151087</v>
       </c>
       <c r="R11" t="n">
-        <v>90.5209569215661</v>
+        <v>90.5209569215657</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.4959557116375</v>
+        <v>119.4959557116372</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458965</v>
+        <v>283.1818887458959</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457675</v>
+        <v>427.5634418457668</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625148</v>
+        <v>518.4987618625139</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313809</v>
+        <v>546.77606803138</v>
       </c>
       <c r="O12" t="n">
-        <v>417.077802752861</v>
+        <v>36.9680215572833</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>363.9073766062163</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.8390133211631</v>
+        <v>192.8390133211627</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936553</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701844</v>
+        <v>61.18259316701821</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360913</v>
+        <v>231.690115036091</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112338</v>
+        <v>352.5708868112333</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882116</v>
+        <v>382.2306297882111</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765381</v>
+        <v>378.6315512765376</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190457</v>
+        <v>333.5494446190453</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410832</v>
+        <v>261.6509074410828</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998361</v>
+        <v>96.87566713998338</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
         <v>333.8472147104634</v>
@@ -35732,10 +35732,10 @@
         <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284119</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>45.37210022701144</v>
+        <v>297.0239211855412</v>
       </c>
       <c r="O15" t="n">
         <v>552.4004797981761</v>
@@ -35744,10 +35744,10 @@
         <v>423.8217357839152</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R15" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558154</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>566.8045140811963</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>59.99058959552271</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36437,19 +36437,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>71.39556506237764</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>425.1908331501702</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071396</v>
@@ -36668,31 +36668,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>57.74979223202556</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>205.0040068187898</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789214</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>120.5443928316911</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>471.1188709150848</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>602.3814548662783</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>160.8335108287862</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37391,19 +37391,19 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>18.86448192629892</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>180.6240912112796</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789214</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295685</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
         <v>264.332588409635</v>
@@ -37546,7 +37546,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M38" t="n">
         <v>735.300110790295</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>187.1368183553853</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.3288951674331</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>322.6208179396315</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>35.97859357997668</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>23.94570355317081</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>388.4444965287602</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>150.1270658774933</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
